--- a/backend/fms_core/tests/valid_templates/Sample_submission_v4_1_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_submission_v4_1_0.xlsx
@@ -56,7 +56,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="C8" authorId="0">
@@ -338,7 +338,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="I3" authorId="0">
@@ -360,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="3051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="3051">
   <si>
     <t xml:space="preserve">SAMPLE SUBMISSION</t>
   </si>
@@ -559,63 +559,66 @@
     <t xml:space="preserve">TEST_PROJECT</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MrTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonsieurTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_v3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRCh38.p14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">los comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_RNA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA1_Alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_Blood1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood1_Alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el_container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_qwe2</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">MrTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MonsieurTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test_v3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRCh38.p14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">los comentarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_RNA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA1_Alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_Blood1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood1_Alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el_container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_qwe2</t>
-  </si>
-  <si>
     <t xml:space="preserve">EXPECTORATION</t>
   </si>
   <si>
@@ -1910,9 +1913,6 @@
   </si>
   <si>
     <t xml:space="preserve">UDI70017-UDI50017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">B06</t>
@@ -10259,9 +10259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1554840</xdr:colOff>
+      <xdr:colOff>1554480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10276,7 +10276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76320" y="28440"/>
-          <a:ext cx="1478520" cy="537840"/>
+          <a:ext cx="1478160" cy="537480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10600,7 +10600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
         <v>47</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
         <v>47</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>55</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="21" t="n">
@@ -10845,13 +10845,13 @@
         <v>47</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>51</v>
@@ -10871,7 +10871,7 @@
         <v>55</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M12" s="20"/>
       <c r="N12" s="21" t="n">
@@ -10923,10 +10923,10 @@
         <v>47</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20" t="s">
@@ -10939,7 +10939,7 @@
         <v>74</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -10947,7 +10947,7 @@
         <v>55</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="21" t="n">
@@ -10991,7 +10991,7 @@
       <c r="AH13" s="23"/>
       <c r="AI13" s="23"/>
       <c r="AJ13" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10999,10 +10999,10 @@
         <v>47</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20" t="s">
@@ -11015,7 +11015,7 @@
         <v>74</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -11023,7 +11023,7 @@
         <v>55</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M14" s="20"/>
       <c r="N14" s="21" t="n">
@@ -11067,7 +11067,7 @@
       <c r="AH14" s="23"/>
       <c r="AI14" s="23"/>
       <c r="AJ14" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11075,10 +11075,10 @@
         <v>47</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20" t="s">
@@ -11091,7 +11091,7 @@
         <v>74</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -11099,7 +11099,7 @@
         <v>55</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="21" t="n">
@@ -11143,28 +11143,28 @@
       <c r="AH15" s="23"/>
       <c r="AI15" s="23"/>
       <c r="AJ15" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>54</v>
@@ -11174,9 +11174,7 @@
       <c r="K16" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="21" t="n">
         <v>9606</v>
@@ -11211,43 +11209,43 @@
         <v>62</v>
       </c>
       <c r="Z16" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA16" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB16" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC16" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD16" s="22"/>
       <c r="AE16" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF16" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG16" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH16" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI16" s="23"/>
       <c r="AJ16" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -11258,9 +11256,7 @@
       <c r="K17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="21" t="n">
         <v>9606</v>
@@ -11293,30 +11289,30 @@
         <v>62</v>
       </c>
       <c r="Z17" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA17" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC17" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD17" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE17" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF17" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG17" s="23"/>
       <c r="AH17" s="23"/>
       <c r="AI17" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ17" s="20"/>
     </row>
@@ -11327,7 +11323,7 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -11360,27 +11356,27 @@
         <v>63</v>
       </c>
       <c r="AA18" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC18" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD18" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE18" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF18" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG18" s="23"/>
       <c r="AH18" s="23"/>
       <c r="AI18" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ18" s="20"/>
     </row>
@@ -29899,7 +29895,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -29934,7 +29930,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>19</v>
@@ -29943,7 +29939,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>46</v>
@@ -29952,28 +29948,28 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K4" s="25"/>
     </row>
@@ -36082,7 +36078,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36090,15 +36086,15 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" s="33"/>
       <c r="G4" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="34"/>
       <c r="J4" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K4" s="35"/>
     </row>
@@ -36108,7 +36104,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -36118,7 +36114,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -36128,7 +36124,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -36138,7 +36134,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -36148,7 +36144,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -36158,7 +36154,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -36168,7 +36164,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -36178,7 +36174,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -36188,7 +36184,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -36198,7 +36194,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -36208,7 +36204,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -36218,7 +36214,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -36228,7 +36224,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -36238,7 +36234,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -36248,7 +36244,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -36258,7 +36254,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -36268,7 +36264,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -36278,7 +36274,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -36288,7 +36284,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -36298,7 +36294,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -36308,7 +36304,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -36318,7 +36314,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -36328,7 +36324,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -36338,7 +36334,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D29" s="6"/>
     </row>
@@ -36348,7 +36344,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D30" s="6"/>
     </row>
@@ -36358,7 +36354,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D31" s="6"/>
     </row>
@@ -36368,7 +36364,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D32" s="6"/>
     </row>
@@ -36378,7 +36374,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D33" s="6"/>
     </row>
@@ -36388,7 +36384,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D34" s="6"/>
     </row>
@@ -36398,7 +36394,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D35" s="6"/>
     </row>
@@ -36408,7 +36404,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D36" s="6"/>
     </row>
@@ -36418,7 +36414,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D37" s="6"/>
     </row>
@@ -36428,7 +36424,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D38" s="6"/>
     </row>
@@ -36438,7 +36434,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D39" s="6"/>
     </row>
@@ -36448,7 +36444,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D40" s="6"/>
     </row>
@@ -36458,7 +36454,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D41" s="6"/>
     </row>
@@ -36468,7 +36464,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D43" s="6"/>
     </row>
@@ -36478,7 +36474,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D44" s="6"/>
     </row>
@@ -36488,7 +36484,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D45" s="6"/>
     </row>
@@ -36498,7 +36494,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D46" s="6"/>
     </row>
@@ -36508,17 +36504,17 @@
         <v>17</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="37"/>
       <c r="B48" s="39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -36528,7 +36524,7 @@
         <v>19</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D49" s="6"/>
     </row>
@@ -36538,17 +36534,17 @@
         <v>20</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="36"/>
       <c r="B51" s="39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D51" s="6"/>
     </row>
@@ -36558,7 +36554,7 @@
         <v>46</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -36628,16 +36624,16 @@
         <v>15</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>32</v>
@@ -36658,58 +36654,58 @@
         <v>39</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>41</v>
       </c>
       <c r="P1" s="43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q1" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="R1" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S1" s="44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T1" s="44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U1" s="44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V1" s="44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="W1" s="44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y1" s="44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z1" s="44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA1" s="44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB1" s="44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AC1" s="44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD1" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE1" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36717,10 +36713,10 @@
         <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>54</v>
@@ -36732,7 +36728,7 @@
         <v>54</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>61</v>
@@ -36744,64 +36740,64 @@
         <v>62</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36809,7 +36805,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>51</v>
@@ -36821,248 +36817,248 @@
         <v>68</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G3" s="46" t="n">
         <v>10090</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>69</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" s="46" t="n">
         <v>2697049</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G5" s="46" t="n">
         <v>6945</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37070,16 +37066,16 @@
         <v>70</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>54</v>
@@ -37088,374 +37084,374 @@
         <v>9615</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>562</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>5661</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>139</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>11320</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>54</v>
@@ -37464,264 +37460,264 @@
         <v>11520</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>12814</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1325716</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AD13" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>3684</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AD14" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>8038</v>
@@ -37730,140 +37726,140 @@
         <v>43</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N15" s="41" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AD15" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="41" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>8040</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>54</v>
@@ -37872,131 +37868,131 @@
         <v>3885</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AD17" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>69293</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AD18" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>508</v>
@@ -38005,7 +38001,7 @@
         <v>509</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>481459</v>
@@ -38070,7 +38066,7 @@
         <v>528</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>529</v>
@@ -38241,7 +38237,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>583</v>
@@ -38368,7 +38364,7 @@
         <v>621</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>622</v>
@@ -38421,13 +38417,13 @@
         <v>637</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>638</v>
@@ -38483,10 +38479,10 @@
         <v>654</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>655</v>
@@ -38542,7 +38538,7 @@
         <v>671</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>548</v>
@@ -38601,7 +38597,7 @@
         <v>688</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>689</v>
@@ -38660,7 +38656,7 @@
         <v>705</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>706</v>
@@ -38837,7 +38833,7 @@
         <v>546</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>758</v>
@@ -38896,7 +38892,7 @@
         <v>566</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>775</v>
@@ -38955,7 +38951,7 @@
         <v>583</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>792</v>
@@ -39126,7 +39122,7 @@
         <v>841</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>842</v>
@@ -39365,7 +39361,7 @@
         <v>916</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>917</v>
@@ -39421,7 +39417,7 @@
         <v>933</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>934</v>
@@ -39477,7 +39473,7 @@
         <v>950</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>951</v>
@@ -39807,7 +39803,7 @@
         <v>548</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q50" s="0" t="s">
         <v>1052</v>
@@ -41079,7 +41075,7 @@
         <v>843</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q74" s="0" t="s">
         <v>1446</v>
